--- a/data/trans_orig/P14B19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C2F7DE-293D-4151-840E-4FCBA18D964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FFA426-378C-462A-B8E4-D306E467818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65BC061F-465B-4849-AEAE-555376E4F62D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08CA96FF-9519-4262-B9CE-1AA6861969E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="217">
   <si>
     <t>Población cuyas varices en las piernas le limita en 2012 (Tasa respuesta: 4,73%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>52,17%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>54,11%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>47,83%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
   </si>
   <si>
     <t>45,67%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>34,13%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
   </si>
   <si>
     <t>34,74%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>65,26%</t>
   </si>
   <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,505 +202,493 @@
     <t>27,53%</t>
   </si>
   <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2015 (Tasa respuesta: 3,61%)</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2015 (Tasa respuesta: 3,61%)</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>74,09%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF1A03-5824-4FDB-8B49-8C215993386B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586304F5-63D9-4EF8-880D-A1F452185AEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1863,7 +1851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5528FB41-9A14-4E27-BE9F-D35F6E17E456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7CA8D8-D09B-4DFF-ADC3-B35A0122275C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1993,7 +1981,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -2002,13 +1990,13 @@
         <v>43553</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -2017,13 +2005,13 @@
         <v>47891</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2026,13 @@
         <v>13984</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>61</v>
@@ -2053,13 +2041,13 @@
         <v>72880</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -2068,13 +2056,13 @@
         <v>86864</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2130,13 @@
         <v>2128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2157,13 +2145,13 @@
         <v>21934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2172,13 +2160,13 @@
         <v>24061</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,10 +2181,10 @@
         <v>25578</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>51</v>
@@ -2208,13 +2196,13 @@
         <v>64264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>83</v>
@@ -2223,13 +2211,13 @@
         <v>89843</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,7 +2291,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2312,13 +2300,13 @@
         <v>1956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2327,13 +2315,13 @@
         <v>1956</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,7 +2339,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2363,10 +2351,10 @@
         <v>13671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>51</v>
@@ -2378,10 +2366,10 @@
         <v>19983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>51</v>
@@ -2452,13 +2440,13 @@
         <v>6466</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -2467,13 +2455,13 @@
         <v>67443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2482,13 +2470,13 @@
         <v>73908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2491,13 @@
         <v>45875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -2518,13 +2506,13 @@
         <v>150815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -2533,13 +2521,13 @@
         <v>196691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306692C2-38E2-405D-A013-397A7BFB668F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59799B9F-4615-47EB-8AF7-4F38F30325B6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2631,7 +2619,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2738,13 +2726,13 @@
         <v>12659</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -2753,13 +2741,13 @@
         <v>69224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>133</v>
@@ -2768,13 +2756,13 @@
         <v>81883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2777,13 @@
         <v>24242</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>146</v>
@@ -2804,13 +2792,13 @@
         <v>80702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>177</v>
@@ -2819,13 +2807,13 @@
         <v>104944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2881,13 @@
         <v>18365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -2908,13 +2896,13 @@
         <v>47678</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -2923,13 +2911,13 @@
         <v>66043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2932,13 @@
         <v>56055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>259</v>
@@ -2959,13 +2947,13 @@
         <v>154766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>322</v>
@@ -2974,13 +2962,13 @@
         <v>210821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3036,13 @@
         <v>1986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3063,13 +3051,13 @@
         <v>6324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3078,13 +3066,13 @@
         <v>8310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3087,13 @@
         <v>14102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -3114,13 +3102,13 @@
         <v>38326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -3129,13 +3117,13 @@
         <v>52429</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3191,13 @@
         <v>33010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>203</v>
@@ -3218,28 +3206,28 @@
         <v>123225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
       </c>
       <c r="N13" s="7">
-        <v>156236</v>
+        <v>156235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3242,13 @@
         <v>94400</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3269,13 +3257,13 @@
         <v>273796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -3284,13 +3272,13 @@
         <v>368195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3320,7 @@
         <v>831</v>
       </c>
       <c r="N15" s="7">
-        <v>524431</v>
+        <v>524430</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P14B19-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B19-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FFA426-378C-462A-B8E4-D306E467818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51DD9F1-3842-4917-A958-AA809A5F88D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08CA96FF-9519-4262-B9CE-1AA6861969E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9083AB83-EA4E-45CE-9516-EC41DE2EC8D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="221">
   <si>
     <t>Población cuyas varices en las piernas le limita en 2012 (Tasa respuesta: 4,73%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>52,17%</t>
   </si>
   <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
   </si>
   <si>
     <t>54,33%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>54,11%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>47,83%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
   </si>
   <si>
     <t>45,67%</t>
   </si>
   <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>34,13%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>24,78%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
   </si>
   <si>
     <t>45,31%</t>
   </si>
   <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
     <t>54,69%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>74,47%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,19 +202,19 @@
     <t>27,53%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
   </si>
   <si>
     <t>36,53%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -229,169 +229,181 @@
     <t>72,47%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>63,47%</t>
   </si>
   <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>47,0%</t>
   </si>
   <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>52,49%</t>
   </si>
   <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas varices en las piernas le limita en 2015 (Tasa respuesta: 3,61%)</t>
+    <t>Población cuyas varices en las piernas le limita en 2016 (Tasa respuesta: 3,61%)</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>6,04%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>93,96%</t>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>62,59%</t>
   </si>
   <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
+    <t>23,29%</t>
+  </si>
+  <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
+    <t>76,71%</t>
+  </si>
+  <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>78,88%</t>
   </si>
   <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -400,13 +412,13 @@
     <t>12,51%</t>
   </si>
   <si>
-    <t>38,52%</t>
+    <t>37,18%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>27,76%</t>
+    <t>26,89%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -415,67 +427,67 @@
     <t>87,49%</t>
   </si>
   <si>
-    <t>61,48%</t>
+    <t>62,82%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>72,24%</t>
+    <t>73,11%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>87,65%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>69,1%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>Población cuyas varices en las piernas le limita en 2023 (Tasa respuesta: 9,55%)</t>
@@ -1100,7 +1112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586304F5-63D9-4EF8-880D-A1F452185AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E83280-1C1F-4C88-97EA-BD72417A44AC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1851,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7CA8D8-D09B-4DFF-ADC3-B35A0122275C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC5779-F4BD-422B-95E4-721B0F255888}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1981,7 +1993,7 @@
         <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -1990,13 +2002,13 @@
         <v>43553</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -2005,13 +2017,13 @@
         <v>47891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2038,13 @@
         <v>13984</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>61</v>
@@ -2041,13 +2053,13 @@
         <v>72880</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>76</v>
@@ -2056,13 +2068,13 @@
         <v>86864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,13 +2142,13 @@
         <v>2128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -2145,13 +2157,13 @@
         <v>21934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2160,13 +2172,13 @@
         <v>24061</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,10 +2193,10 @@
         <v>25578</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>51</v>
@@ -2196,13 +2208,13 @@
         <v>64264</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>83</v>
@@ -2211,13 +2223,13 @@
         <v>89843</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,7 +2303,7 @@
         <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2300,13 +2312,13 @@
         <v>1956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2315,13 +2327,13 @@
         <v>1956</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,7 +2351,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2351,10 +2363,10 @@
         <v>13671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>51</v>
@@ -2366,10 +2378,10 @@
         <v>19983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>51</v>
@@ -2440,13 +2452,13 @@
         <v>6466</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -2455,13 +2467,13 @@
         <v>67443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2470,13 +2482,13 @@
         <v>73908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2503,13 @@
         <v>45875</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>131</v>
@@ -2506,13 +2518,13 @@
         <v>150815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -2521,13 +2533,13 @@
         <v>196691</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59799B9F-4615-47EB-8AF7-4F38F30325B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15D9125-F579-4178-AF7A-E7883D48B44E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2619,7 +2631,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2726,13 +2738,13 @@
         <v>12659</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -2741,13 +2753,13 @@
         <v>69224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>133</v>
@@ -2756,13 +2768,13 @@
         <v>81883</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2789,13 @@
         <v>24242</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>146</v>
@@ -2792,13 +2804,13 @@
         <v>80702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>177</v>
@@ -2807,13 +2819,13 @@
         <v>104944</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2893,13 @@
         <v>18365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -2896,13 +2908,13 @@
         <v>47678</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>100</v>
@@ -2911,13 +2923,13 @@
         <v>66043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2944,13 @@
         <v>56055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>259</v>
@@ -2947,13 +2959,13 @@
         <v>154766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>322</v>
@@ -2962,13 +2974,13 @@
         <v>210821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3048,13 @@
         <v>1986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3051,13 +3063,13 @@
         <v>6324</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3066,13 +3078,13 @@
         <v>8310</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3099,13 @@
         <v>14102</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>66</v>
@@ -3102,13 +3114,13 @@
         <v>38326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -3117,13 +3129,13 @@
         <v>52429</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3203,13 @@
         <v>33010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>203</v>
@@ -3206,13 +3218,13 @@
         <v>123225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>247</v>
@@ -3221,13 +3233,13 @@
         <v>156235</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3254,13 @@
         <v>94400</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>471</v>
@@ -3257,13 +3269,13 @@
         <v>273796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -3272,13 +3284,13 @@
         <v>368195</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
